--- a/Documentacao/TI-Backlog.xlsx
+++ b/Documentacao/TI-Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad3eed489a1630f4/Documentos/Faculdade/PESQUISA E INOVAÇÃO/ADS-01/Sprint1/Documentacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="8_{527D46DC-5B78-40FA-8B8B-9F273E6B4D57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5DCEBFB5-737B-4AC4-AE62-744625393F6F}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="8_{527D46DC-5B78-40FA-8B8B-9F273E6B4D57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4D745C16-BFD9-43F2-8432-CFE3DB0544FB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,28 @@
     <sheet name="Backlog" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Backlog!$A$14:$G$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Backlog!$A$14:$G$32</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Website</t>
   </si>
@@ -60,12 +69,6 @@
     <t>2.2</t>
   </si>
   <si>
-    <t>2.3.1</t>
-  </si>
-  <si>
-    <t>2.3.2</t>
-  </si>
-  <si>
     <t>Banco de Dados</t>
   </si>
   <si>
@@ -108,9 +111,6 @@
     <t>Cadastro cliente/ login</t>
   </si>
   <si>
-    <t>2.3.4</t>
-  </si>
-  <si>
     <t>1.4</t>
   </si>
   <si>
@@ -166,13 +166,22 @@
   </si>
   <si>
     <t>5.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>dashboard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +242,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -272,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -295,11 +310,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -355,12 +416,26 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,25 +716,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="3.44140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="4.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8" style="4" customWidth="1"/>
     <col min="4" max="4" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="4" customWidth="1"/>
     <col min="10" max="10" width="32.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="8.88671875" style="4"/>
     <col min="14" max="16384" width="8.88671875" style="6"/>
   </cols>
@@ -668,30 +743,30 @@
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="D1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+        <v>27</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -706,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>1</v>
@@ -715,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -731,7 +806,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -743,11 +818,11 @@
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -756,14 +831,14 @@
       <c r="C7" s="3"/>
       <c r="D7" s="1"/>
       <c r="E7" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -772,14 +847,14 @@
       <c r="C8" s="3"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -809,7 +884,7 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -825,7 +900,7 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -834,14 +909,14 @@
       <c r="C12" s="5"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -850,14 +925,14 @@
       <c r="C13" s="3"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -866,122 +941,122 @@
       <c r="C14" s="3"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="10">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="10">
         <v>3</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="12" t="s">
-        <v>16</v>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="12"/>
+        <v>30</v>
+      </c>
+      <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="10">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="10">
         <v>4</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="E20" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="3"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -990,45 +1065,45 @@
       <c r="C22" s="3"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="10">
-        <v>5</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="D24" s="10">
+        <v>5</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
@@ -1036,54 +1111,63 @@
       <c r="C25" s="3"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1103,28 +1187,34 @@
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="14"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="3"/>
+    </row>
     <row r="38" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:5" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:5" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -1142,11 +1232,13 @@
     <row r="56" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="57" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="58" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="D1:H1"/>
     <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Documentacao/TI-Backlog.xlsx
+++ b/Documentacao/TI-Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad3eed489a1630f4/Documentos/Faculdade/PESQUISA E INOVAÇÃO/ADS-01/Sprint1/Documentacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="246" documentId="8_{527D46DC-5B78-40FA-8B8B-9F273E6B4D57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4D745C16-BFD9-43F2-8432-CFE3DB0544FB}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="8_{527D46DC-5B78-40FA-8B8B-9F273E6B4D57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A6C1EF5A-ACC9-45FF-920F-663AB4AA63DB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
   <si>
     <t>Website</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>dashboard</t>
+  </si>
+  <si>
+    <t>RNF</t>
+  </si>
+  <si>
+    <t>RF</t>
   </si>
 </sst>
 </file>
@@ -416,26 +422,26 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,6 +457,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>83929</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>58388</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97381537-E152-43FB-A15B-84B18542EC1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8282940" y="0"/>
+          <a:ext cx="6096109" cy="2435828"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -719,7 +774,7 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,30 +798,30 @@
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -793,7 +848,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -804,7 +859,9 @@
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>17</v>
       </c>
@@ -820,7 +877,9 @@
       <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
@@ -836,7 +895,9 @@
       <c r="F7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
@@ -852,7 +913,9 @@
       <c r="F8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="H8" s="1" t="s">
         <v>17</v>
       </c>
@@ -882,7 +945,9 @@
       <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="H10" s="1" t="s">
         <v>17</v>
       </c>
@@ -898,7 +963,9 @@
       <c r="F11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="H11" s="1" t="s">
         <v>18</v>
       </c>
@@ -914,7 +981,9 @@
       <c r="F12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="H12" s="1" t="s">
         <v>18</v>
       </c>
@@ -930,7 +999,9 @@
       <c r="F13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="H13" s="16" t="s">
         <v>18</v>
       </c>
@@ -946,7 +1017,9 @@
       <c r="F14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="H14" s="1" t="s">
         <v>18</v>
       </c>
@@ -962,7 +1035,9 @@
       <c r="F15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="H15" s="1" t="s">
         <v>18</v>
       </c>
@@ -992,7 +1067,9 @@
       <c r="F17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="H17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1008,7 +1085,9 @@
       <c r="F18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="12"/>
+      <c r="G18" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="H18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1024,7 +1103,9 @@
       <c r="F19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="H19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1054,7 +1135,9 @@
       <c r="F21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="H21" s="1" t="s">
         <v>17</v>
       </c>
@@ -1070,7 +1153,9 @@
       <c r="F22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="H22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1086,7 +1171,9 @@
       <c r="F23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="H23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1116,7 +1203,9 @@
       <c r="F25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="16"/>
+      <c r="G25" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="H25" s="1" t="s">
         <v>17</v>
       </c>
@@ -1132,7 +1221,9 @@
       <c r="F26" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="16"/>
+      <c r="G26" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="H26" s="1" t="s">
         <v>17</v>
       </c>
@@ -1241,5 +1332,6 @@
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Documentacao/TI-Backlog.xlsx
+++ b/Documentacao/TI-Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad3eed489a1630f4/Documentos/Faculdade/PESQUISA E INOVAÇÃO/ADS-01/Sprint1/Documentacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="278" documentId="8_{527D46DC-5B78-40FA-8B8B-9F273E6B4D57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A6C1EF5A-ACC9-45FF-920F-663AB4AA63DB}"/>
+  <xr:revisionPtr revIDLastSave="299" documentId="8_{527D46DC-5B78-40FA-8B8B-9F273E6B4D57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{844C38DC-856C-4284-8D9E-CE45F25B1387}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>Website</t>
   </si>
@@ -48,60 +48,27 @@
     <t>Classificação</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
     <t>Documentação do contexto do negócio</t>
   </si>
   <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
     <t>Protótipo do website - modelo institucional</t>
   </si>
   <si>
     <t>Login do usuário</t>
   </si>
   <si>
-    <t>2.2</t>
-  </si>
-  <si>
     <t>Banco de Dados</t>
   </si>
   <si>
-    <t>3.1</t>
-  </si>
-  <si>
     <t>Diagrama da solução</t>
   </si>
   <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
     <t>Essencial</t>
   </si>
   <si>
     <t>Importante</t>
   </si>
   <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
     <t>Quem somos nós</t>
   </si>
   <si>
@@ -111,9 +78,6 @@
     <t>Cadastro cliente/ login</t>
   </si>
   <si>
-    <t>1.4</t>
-  </si>
-  <si>
     <t>Justificativa</t>
   </si>
   <si>
@@ -160,18 +124,6 @@
   </si>
   <si>
     <t xml:space="preserve">Protótipo do Site Institucional </t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>2.4</t>
   </si>
   <si>
     <t>dashboard</t>
@@ -774,7 +726,7 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,7 +751,7 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="21" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
@@ -811,7 +763,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="24" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -836,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>1</v>
@@ -845,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -853,17 +805,17 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -871,17 +823,17 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
+      <c r="E6" s="1">
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -889,17 +841,17 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>25</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -907,17 +859,17 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
+      <c r="E8" s="1">
+        <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -939,17 +891,17 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>6</v>
+      <c r="E10" s="1">
+        <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -957,17 +909,17 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -975,17 +927,17 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>43</v>
+      <c r="E12" s="1">
+        <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -993,17 +945,17 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>43</v>
+      <c r="E13" s="1">
+        <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1011,17 +963,17 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>43</v>
+      <c r="E14" s="1">
+        <v>9</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1029,17 +981,17 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>44</v>
+      <c r="E15" s="1">
+        <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1050,7 +1002,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
@@ -1061,17 +1013,17 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="1">
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="H17" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1079,17 +1031,17 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="12" t="s">
-        <v>14</v>
+      <c r="E18" s="1">
+        <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1097,17 +1049,17 @@
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>15</v>
+      <c r="E19" s="1">
+        <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1118,7 +1070,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -1129,17 +1081,17 @@
       <c r="B21" s="5"/>
       <c r="C21" s="3"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>16</v>
+      <c r="E21" s="1">
+        <v>14</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1147,17 +1099,17 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>19</v>
+      <c r="E22" s="1">
+        <v>15</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1165,17 +1117,17 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>20</v>
+      <c r="E23" s="1">
+        <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1186,7 +1138,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -1197,17 +1149,17 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="16" t="s">
-        <v>41</v>
+      <c r="E25" s="16">
+        <v>17</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1215,17 +1167,17 @@
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="16"/>
-      <c r="E26" s="16" t="s">
-        <v>42</v>
+      <c r="E26" s="16">
+        <v>18</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">

--- a/Documentacao/TI-Backlog.xlsx
+++ b/Documentacao/TI-Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad3eed489a1630f4/Documentos/Faculdade/PESQUISA E INOVAÇÃO/ADS-01/Sprint1/Documentacao/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\OneDrive\Documentos\Faculdade\PESQUISA E INOVAÇÃO\ADS-01\Sprint1\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="299" documentId="8_{527D46DC-5B78-40FA-8B8B-9F273E6B4D57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{844C38DC-856C-4284-8D9E-CE45F25B1387}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2D35AA-842B-4D7D-9660-540D6A8890FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -934,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>9</v>
@@ -952,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>9</v>

--- a/Documentacao/TI-Backlog.xlsx
+++ b/Documentacao/TI-Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\OneDrive\Documentos\Faculdade\PESQUISA E INOVAÇÃO\ADS-01\Sprint1\Documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoa\Downloads\faculdade\P.I\Git Projeto\Sprint1\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2D35AA-842B-4D7D-9660-540D6A8890FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F5EE45-837C-4AF3-AD3D-5C4DDCD774A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="4" r:id="rId1"/>
@@ -725,28 +725,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="8" style="4" customWidth="1"/>
     <col min="4" max="4" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="4" customWidth="1"/>
-    <col min="10" max="10" width="32.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.88671875" style="4"/>
-    <col min="14" max="16384" width="8.88671875" style="6"/>
+    <col min="10" max="10" width="32.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.85546875" style="4"/>
+    <col min="14" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -758,7 +758,7 @@
       <c r="G1" s="22"/>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -770,7 +770,7 @@
       <c r="G2" s="25"/>
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
@@ -780,7 +780,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -800,7 +800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -818,7 +818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -836,7 +836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -854,7 +854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -872,7 +872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -886,7 +886,7 @@
       <c r="G9" s="17"/>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -898,13 +898,13 @@
         <v>4</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -922,7 +922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -940,7 +940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -958,7 +958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -976,7 +976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -994,7 +994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="5"/>
       <c r="C16" s="3"/>
@@ -1008,7 +1008,7 @@
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1026,7 +1026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1044,7 +1044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1062,7 +1062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1076,7 +1076,7 @@
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="5"/>
       <c r="C21" s="3"/>
@@ -1094,7 +1094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1112,7 +1112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1130,7 +1130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1144,7 +1144,7 @@
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1162,7 +1162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1180,102 +1180,102 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="5"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="5"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
       <c r="D36" s="14"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:5" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:5" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:H1"/>

--- a/Documentacao/TI-Backlog.xlsx
+++ b/Documentacao/TI-Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoa\Downloads\faculdade\P.I\Git Projeto\Sprint1\Documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sérgio\Desktop\Bandtec\Projeto Sprint1\Sprint1\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F5EE45-837C-4AF3-AD3D-5C4DDCD774A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17E4585-5B00-45EE-81E1-E10A0B6009D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="4" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>Justificativa</t>
   </si>
   <si>
-    <t>Projeto - Habort Solutions</t>
-  </si>
-  <si>
     <t xml:space="preserve">Backlog </t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>RF</t>
+  </si>
+  <si>
+    <t>Projeto - Harbor Solutions</t>
   </si>
 </sst>
 </file>
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,7 +751,7 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="21" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
@@ -763,7 +763,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -788,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>1</v>
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -812,7 +812,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>8</v>
@@ -830,7 +830,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>8</v>
@@ -848,7 +848,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>8</v>
@@ -863,10 +863,10 @@
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>8</v>
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>8</v>
@@ -916,7 +916,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>9</v>
@@ -934,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>9</v>
@@ -952,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>9</v>
@@ -970,7 +970,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>9</v>
@@ -985,10 +985,10 @@
         <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>9</v>
@@ -1017,10 +1017,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>8</v>
@@ -1035,10 +1035,10 @@
         <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>8</v>
@@ -1053,10 +1053,10 @@
         <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>8</v>
@@ -1070,7 +1070,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -1085,10 +1085,10 @@
         <v>14</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>8</v>
@@ -1103,10 +1103,10 @@
         <v>15</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>8</v>
@@ -1121,10 +1121,10 @@
         <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>8</v>
@@ -1138,7 +1138,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -1153,10 +1153,10 @@
         <v>17</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>8</v>
@@ -1171,10 +1171,10 @@
         <v>18</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>8</v>
